--- a/Code/Results/Cases/Case_9_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019512564087087</v>
+        <v>1.017957358120332</v>
       </c>
       <c r="D2">
-        <v>1.038946694094159</v>
+        <v>1.036829771210727</v>
       </c>
       <c r="E2">
-        <v>1.033247588124949</v>
+        <v>1.031910344832991</v>
       </c>
       <c r="F2">
-        <v>1.044439775680977</v>
+        <v>1.043003090000628</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052026614093434</v>
+        <v>1.051192272280267</v>
       </c>
       <c r="J2">
-        <v>1.041124919116061</v>
+        <v>1.039613919791226</v>
       </c>
       <c r="K2">
-        <v>1.049888848931091</v>
+        <v>1.047798789443524</v>
       </c>
       <c r="L2">
-        <v>1.044262377081893</v>
+        <v>1.042942322048894</v>
       </c>
       <c r="M2">
-        <v>1.055312857347548</v>
+        <v>1.053894149774035</v>
       </c>
       <c r="N2">
-        <v>1.016924325768652</v>
+        <v>1.01724579935928</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052348711288756</v>
+        <v>1.051225916592889</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046345983159311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044876846189987</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024537729421136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023937871496502</v>
+        <v>1.022105534385215</v>
       </c>
       <c r="D3">
-        <v>1.041968338400943</v>
+        <v>1.039555656991492</v>
       </c>
       <c r="E3">
-        <v>1.036694555100298</v>
+        <v>1.035113801825729</v>
       </c>
       <c r="F3">
-        <v>1.047581276219307</v>
+        <v>1.045917873584838</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052934086516236</v>
+        <v>1.051963495393654</v>
       </c>
       <c r="J3">
-        <v>1.043796576032013</v>
+        <v>1.04201119781275</v>
       </c>
       <c r="K3">
-        <v>1.052090975457536</v>
+        <v>1.049706246577206</v>
       </c>
       <c r="L3">
-        <v>1.046878501058132</v>
+        <v>1.045316274985798</v>
       </c>
       <c r="M3">
-        <v>1.057639498302768</v>
+        <v>1.05599509618117</v>
       </c>
       <c r="N3">
-        <v>1.017877441497487</v>
+        <v>1.01792062819201</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054190059732073</v>
+        <v>1.052888648701343</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047900411132602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046222643957919</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024962201435984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026748435764058</v>
+        <v>1.024742528259769</v>
       </c>
       <c r="D4">
-        <v>1.04389067837627</v>
+        <v>1.041291796567328</v>
       </c>
       <c r="E4">
-        <v>1.038889462621955</v>
+        <v>1.037156015503864</v>
       </c>
       <c r="F4">
-        <v>1.049582295943249</v>
+        <v>1.047776521975097</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053500827443349</v>
+        <v>1.052444449919933</v>
       </c>
       <c r="J4">
-        <v>1.04549180918631</v>
+        <v>1.043533816548982</v>
       </c>
       <c r="K4">
-        <v>1.053486739481514</v>
+        <v>1.050916155037818</v>
       </c>
       <c r="L4">
-        <v>1.048540133056134</v>
+        <v>1.046825764843526</v>
       </c>
       <c r="M4">
-        <v>1.059116984861833</v>
+        <v>1.0573305938832</v>
       </c>
       <c r="N4">
-        <v>1.018481602880171</v>
+        <v>1.018348980310725</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055359368712902</v>
+        <v>1.053945587085901</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048888200896771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047079103182812</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025229018109512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027922829335164</v>
+        <v>1.025844771609208</v>
       </c>
       <c r="D5">
-        <v>1.044696788871532</v>
+        <v>1.04202040420822</v>
       </c>
       <c r="E5">
-        <v>1.039808646981194</v>
+        <v>1.038011679242204</v>
       </c>
       <c r="F5">
-        <v>1.050420471393567</v>
+        <v>1.048555465123234</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053737170269445</v>
+        <v>1.052645029669661</v>
       </c>
       <c r="J5">
-        <v>1.04620164668469</v>
+        <v>1.044171738643443</v>
       </c>
       <c r="K5">
-        <v>1.054072263241974</v>
+        <v>1.051424245389783</v>
       </c>
       <c r="L5">
-        <v>1.049236065369028</v>
+        <v>1.047458343837832</v>
       </c>
       <c r="M5">
-        <v>1.05973587348467</v>
+        <v>1.057890353163219</v>
       </c>
       <c r="N5">
-        <v>1.018735189232612</v>
+        <v>1.018528933215769</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055849167574628</v>
+        <v>1.054388590830101</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049309288336874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047446153644488</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025341128928378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028125485049592</v>
+        <v>1.026034787966593</v>
       </c>
       <c r="D6">
-        <v>1.044838517844332</v>
+        <v>1.04214868433171</v>
       </c>
       <c r="E6">
-        <v>1.039968210466213</v>
+        <v>1.038160097643271</v>
       </c>
       <c r="F6">
-        <v>1.050566037840429</v>
+        <v>1.048690689327197</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053780102775741</v>
+        <v>1.052681687713396</v>
       </c>
       <c r="J6">
-        <v>1.046326415291281</v>
+        <v>1.044283910458628</v>
       </c>
       <c r="K6">
-        <v>1.054176931650368</v>
+        <v>1.051515476988822</v>
       </c>
       <c r="L6">
-        <v>1.049358139879442</v>
+        <v>1.047569302993495</v>
       </c>
       <c r="M6">
-        <v>1.059844615092965</v>
+        <v>1.057988770826676</v>
       </c>
       <c r="N6">
-        <v>1.018780681891068</v>
+        <v>1.018561247961739</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055935227479208</v>
+        <v>1.054466480344351</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049391931725362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047520168482517</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025362019061597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02678086389902</v>
+        <v>1.024783230017256</v>
       </c>
       <c r="D7">
-        <v>1.04391986280707</v>
+        <v>1.041326692724503</v>
       </c>
       <c r="E7">
-        <v>1.038917197380003</v>
+        <v>1.037190876179691</v>
       </c>
       <c r="F7">
-        <v>1.049607720999145</v>
+        <v>1.04780758946428</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05351353620057</v>
+        <v>1.052460063702785</v>
       </c>
       <c r="J7">
-        <v>1.045517615219414</v>
+        <v>1.043567676669185</v>
       </c>
       <c r="K7">
-        <v>1.053512773658552</v>
+        <v>1.050947827238024</v>
       </c>
       <c r="L7">
-        <v>1.048564711567374</v>
+        <v>1.046857383113013</v>
       </c>
       <c r="M7">
-        <v>1.059139324482635</v>
+        <v>1.057358507685941</v>
       </c>
       <c r="N7">
-        <v>1.018493360579698</v>
+        <v>1.01838686995913</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055377048669893</v>
+        <v>1.053967678586673</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04892647607873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047123370894172</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025239158220677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021040550992064</v>
+        <v>1.019421986987767</v>
       </c>
       <c r="D8">
-        <v>1.03999796536908</v>
+        <v>1.037803535204237</v>
       </c>
       <c r="E8">
-        <v>1.034439648914282</v>
+        <v>1.03304654959513</v>
       </c>
       <c r="F8">
-        <v>1.045526152710444</v>
+        <v>1.044034218761082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052349674184663</v>
+        <v>1.051480900700401</v>
       </c>
       <c r="J8">
-        <v>1.042055531787838</v>
+        <v>1.040481417235282</v>
       </c>
       <c r="K8">
-        <v>1.050662082487794</v>
+        <v>1.048494670206954</v>
       </c>
       <c r="L8">
-        <v>1.045172477391845</v>
+        <v>1.043796743838901</v>
       </c>
       <c r="M8">
-        <v>1.05612283117871</v>
+        <v>1.054649009977367</v>
       </c>
       <c r="N8">
-        <v>1.017259804101416</v>
+        <v>1.017573286714006</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052989740681674</v>
+        <v>1.05182332887469</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046915372063755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045393813816697</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024698977599756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010472497094834</v>
+        <v>1.009537285620194</v>
       </c>
       <c r="D9">
-        <v>1.03279487037411</v>
+        <v>1.031321579270784</v>
       </c>
       <c r="E9">
-        <v>1.026239820967289</v>
+        <v>1.025445974134736</v>
       </c>
       <c r="F9">
-        <v>1.038056844254813</v>
+        <v>1.037120942350815</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050122515370412</v>
+        <v>1.049586419039881</v>
       </c>
       <c r="J9">
-        <v>1.035660788263574</v>
+        <v>1.034757695293461</v>
       </c>
       <c r="K9">
-        <v>1.045377373645535</v>
+        <v>1.043926133110723</v>
       </c>
       <c r="L9">
-        <v>1.038921051977018</v>
+        <v>1.038139270753728</v>
       </c>
       <c r="M9">
-        <v>1.050561241321871</v>
+        <v>1.049639157868737</v>
       </c>
       <c r="N9">
-        <v>1.014972401285412</v>
+        <v>1.015968908644489</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048588176857789</v>
+        <v>1.047858417339092</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04317564960173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042160191237598</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023666972646813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003204260324055</v>
+        <v>1.002797431476841</v>
       </c>
       <c r="D10">
-        <v>1.027886188469816</v>
+        <v>1.026950954383861</v>
       </c>
       <c r="E10">
-        <v>1.020661874551271</v>
+        <v>1.020329192980858</v>
       </c>
       <c r="F10">
-        <v>1.033009862191871</v>
+        <v>1.032496794167435</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048570758782243</v>
+        <v>1.04828380194138</v>
       </c>
       <c r="J10">
-        <v>1.031291321780366</v>
+        <v>1.030900497763307</v>
       </c>
       <c r="K10">
-        <v>1.041769564234769</v>
+        <v>1.040850073710064</v>
       </c>
       <c r="L10">
-        <v>1.034667831386</v>
+        <v>1.034340848735275</v>
       </c>
       <c r="M10">
-        <v>1.046807638355352</v>
+        <v>1.046303092704165</v>
       </c>
       <c r="N10">
-        <v>1.013419739523693</v>
+        <v>1.015010106376552</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045668472154166</v>
+        <v>1.045269185304137</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040641414982389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040003619019536</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022973085743466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000716815214695</v>
+        <v>1.000511512028599</v>
       </c>
       <c r="D11">
-        <v>1.026387000735593</v>
+        <v>1.025645757693593</v>
       </c>
       <c r="E11">
-        <v>1.018973394585035</v>
+        <v>1.018810811422353</v>
       </c>
       <c r="F11">
-        <v>1.031720949772573</v>
+        <v>1.031363879043831</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048243127725809</v>
+        <v>1.048038180150103</v>
       </c>
       <c r="J11">
-        <v>1.03005980421053</v>
+        <v>1.029863026973804</v>
       </c>
       <c r="K11">
-        <v>1.040827882080495</v>
+        <v>1.040099713756796</v>
       </c>
       <c r="L11">
-        <v>1.03354615639177</v>
+        <v>1.033386493361937</v>
       </c>
       <c r="M11">
-        <v>1.046068463230115</v>
+        <v>1.045717603784318</v>
       </c>
       <c r="N11">
-        <v>1.013087512528879</v>
+        <v>1.01502603332572</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045516197228101</v>
+        <v>1.045238671759789</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040008231520092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03950892094221</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022875062049616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000059033668161</v>
+        <v>0.9998901428290535</v>
       </c>
       <c r="D12">
-        <v>1.026072940828646</v>
+        <v>1.025366641014508</v>
       </c>
       <c r="E12">
-        <v>1.018630578559223</v>
+        <v>1.018494552005085</v>
       </c>
       <c r="F12">
-        <v>1.031586211105824</v>
+        <v>1.031256023690929</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048257269037415</v>
+        <v>1.048060477080112</v>
       </c>
       <c r="J12">
-        <v>1.029860895293463</v>
+        <v>1.02969915273562</v>
       </c>
       <c r="K12">
-        <v>1.040717110246914</v>
+        <v>1.040023474885564</v>
       </c>
       <c r="L12">
-        <v>1.033409343517924</v>
+        <v>1.033275800840563</v>
       </c>
       <c r="M12">
-        <v>1.046132296650721</v>
+        <v>1.045807945146226</v>
       </c>
       <c r="N12">
-        <v>1.013101329659101</v>
+        <v>1.015140308905047</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045890687586356</v>
+        <v>1.045634215156714</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039929913235544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039455019320192</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022909572747869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000790669279383</v>
+        <v>1.000513930348816</v>
       </c>
       <c r="D13">
-        <v>1.026675645345503</v>
+        <v>1.025868739271961</v>
       </c>
       <c r="E13">
-        <v>1.01932325962296</v>
+        <v>1.019088213784801</v>
       </c>
       <c r="F13">
-        <v>1.032358249240811</v>
+        <v>1.031943263075075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048553001324513</v>
+        <v>1.048300463124567</v>
       </c>
       <c r="J13">
-        <v>1.030469105436982</v>
+        <v>1.030204014098307</v>
       </c>
       <c r="K13">
-        <v>1.041266645207658</v>
+        <v>1.040474139116505</v>
       </c>
       <c r="L13">
-        <v>1.034046565726602</v>
+        <v>1.033815790512207</v>
       </c>
       <c r="M13">
-        <v>1.046848664013391</v>
+        <v>1.046440974719958</v>
       </c>
       <c r="N13">
-        <v>1.01339460641503</v>
+        <v>1.015307476365859</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046731942589967</v>
+        <v>1.046409652976213</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040315972128481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039770925921089</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023053898236283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001933225463613</v>
+        <v>1.001516858127669</v>
       </c>
       <c r="D14">
-        <v>1.027514639379779</v>
+        <v>1.026577053664971</v>
       </c>
       <c r="E14">
-        <v>1.020277865480794</v>
+        <v>1.019918032127755</v>
       </c>
       <c r="F14">
-        <v>1.033310365079268</v>
+        <v>1.032786573360882</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048887987976261</v>
+        <v>1.048568463496837</v>
       </c>
       <c r="J14">
-        <v>1.031261340018279</v>
+        <v>1.030862233974313</v>
       </c>
       <c r="K14">
-        <v>1.041951991241216</v>
+        <v>1.041030922053594</v>
       </c>
       <c r="L14">
-        <v>1.034843722871636</v>
+        <v>1.034490341012187</v>
       </c>
       <c r="M14">
-        <v>1.047646480271495</v>
+        <v>1.047131777423162</v>
       </c>
       <c r="N14">
-        <v>1.013726945039856</v>
+        <v>1.015450687751994</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047534897555371</v>
+        <v>1.047128065113791</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040801942306815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040166129928495</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023205755357094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002521481524905</v>
+        <v>1.002040252922459</v>
       </c>
       <c r="D15">
-        <v>1.027927860938681</v>
+        <v>1.026929330657026</v>
       </c>
       <c r="E15">
-        <v>1.020745429721827</v>
+        <v>1.020328494191675</v>
       </c>
       <c r="F15">
-        <v>1.033753084314589</v>
+        <v>1.033178960916854</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049035960116986</v>
+        <v>1.048686566741289</v>
       </c>
       <c r="J15">
-        <v>1.031639282406574</v>
+        <v>1.031177823863319</v>
       </c>
       <c r="K15">
-        <v>1.042272528258424</v>
+        <v>1.041291451444209</v>
       </c>
       <c r="L15">
-        <v>1.035216626917315</v>
+        <v>1.034807107367968</v>
       </c>
       <c r="M15">
-        <v>1.047996800611982</v>
+        <v>1.047432561372537</v>
       </c>
       <c r="N15">
-        <v>1.013872833468429</v>
+        <v>1.015503464901528</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047849122306493</v>
+        <v>1.047403146829937</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041034396100753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040356724468494</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023270212276839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005464826083982</v>
+        <v>1.004704312868953</v>
       </c>
       <c r="D16">
-        <v>1.029898693946195</v>
+        <v>1.028633612737863</v>
       </c>
       <c r="E16">
-        <v>1.022980277433219</v>
+        <v>1.022321586427144</v>
       </c>
       <c r="F16">
-        <v>1.035766545028129</v>
+        <v>1.034975749996303</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049653847986372</v>
+        <v>1.049181057187059</v>
       </c>
       <c r="J16">
-        <v>1.03338719245727</v>
+        <v>1.032656327958169</v>
       </c>
       <c r="K16">
-        <v>1.043713160122299</v>
+        <v>1.042469214832613</v>
       </c>
       <c r="L16">
-        <v>1.036911155286623</v>
+        <v>1.036263653703808</v>
       </c>
       <c r="M16">
-        <v>1.049483844404672</v>
+        <v>1.048706061652133</v>
       </c>
       <c r="N16">
-        <v>1.014478789090272</v>
+        <v>1.015694733562101</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048985997129789</v>
+        <v>1.048371218992195</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042056096887603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041192866187862</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023525483915906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007124834170967</v>
+        <v>1.006236314441084</v>
       </c>
       <c r="D17">
-        <v>1.030971661477416</v>
+        <v>1.029580391122726</v>
       </c>
       <c r="E17">
-        <v>1.024195416349227</v>
+        <v>1.023427621907431</v>
       </c>
       <c r="F17">
-        <v>1.036809190819052</v>
+        <v>1.035918275913962</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049949620807834</v>
+        <v>1.049421785040269</v>
       </c>
       <c r="J17">
-        <v>1.034311942288371</v>
+        <v>1.033456931887631</v>
       </c>
       <c r="K17">
-        <v>1.044457596188299</v>
+        <v>1.043088913088872</v>
       </c>
       <c r="L17">
-        <v>1.037792107443863</v>
+        <v>1.037036981487663</v>
       </c>
       <c r="M17">
-        <v>1.050201200408754</v>
+        <v>1.049324532443588</v>
       </c>
       <c r="N17">
-        <v>1.014769094190927</v>
+        <v>1.015797103600561</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049424813376968</v>
+        <v>1.048731805580828</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042584996686148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041633819295691</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023643628344269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007818029911047</v>
+        <v>1.006905242191193</v>
       </c>
       <c r="D18">
-        <v>1.031346664040387</v>
+        <v>1.029927527590051</v>
       </c>
       <c r="E18">
-        <v>1.024618476493953</v>
+        <v>1.023833013735562</v>
       </c>
       <c r="F18">
-        <v>1.037073675536248</v>
+        <v>1.03616328338487</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049982844833707</v>
+        <v>1.049448341092133</v>
       </c>
       <c r="J18">
-        <v>1.034588900707517</v>
+        <v>1.03370989228271</v>
       </c>
       <c r="K18">
-        <v>1.044645394517654</v>
+        <v>1.043248922645493</v>
       </c>
       <c r="L18">
-        <v>1.038025375636951</v>
+        <v>1.03725265974001</v>
       </c>
       <c r="M18">
-        <v>1.050281748205488</v>
+        <v>1.049385681695504</v>
       </c>
       <c r="N18">
-        <v>1.01480245195522</v>
+        <v>1.015782825079501</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049252551375632</v>
+        <v>1.048544063279745</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04270623593456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041734274757561</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023642127818387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007669729442837</v>
+        <v>1.006811918694426</v>
       </c>
       <c r="D19">
-        <v>1.031125790391091</v>
+        <v>1.02975619515809</v>
       </c>
       <c r="E19">
-        <v>1.024354232025301</v>
+        <v>1.023620892442385</v>
       </c>
       <c r="F19">
-        <v>1.036659959754291</v>
+        <v>1.035792421652981</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049800493501982</v>
+        <v>1.049296762150675</v>
       </c>
       <c r="J19">
-        <v>1.034313129896248</v>
+        <v>1.03348688929466</v>
       </c>
       <c r="K19">
-        <v>1.044366260459721</v>
+        <v>1.043018432801713</v>
       </c>
       <c r="L19">
-        <v>1.037703053797098</v>
+        <v>1.036981558814098</v>
       </c>
       <c r="M19">
-        <v>1.049813222027096</v>
+        <v>1.048959275856207</v>
       </c>
       <c r="N19">
-        <v>1.01462537508361</v>
+        <v>1.015656242956135</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048559297836493</v>
+        <v>1.047883895675772</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042515224460291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041578282479068</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023542888621462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005137410921537</v>
+        <v>1.004555261824159</v>
       </c>
       <c r="D20">
-        <v>1.029208737947524</v>
+        <v>1.028104290989788</v>
       </c>
       <c r="E20">
-        <v>1.022151185990972</v>
+        <v>1.021665053182248</v>
       </c>
       <c r="F20">
-        <v>1.034358664149807</v>
+        <v>1.033708152264679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049004041195403</v>
+        <v>1.048636437353269</v>
       </c>
       <c r="J20">
-        <v>1.032471720407824</v>
+        <v>1.031911708115487</v>
       </c>
       <c r="K20">
-        <v>1.042756721117295</v>
+        <v>1.041670328539912</v>
       </c>
       <c r="L20">
-        <v>1.035815404098812</v>
+        <v>1.035337353830702</v>
       </c>
       <c r="M20">
-        <v>1.047823114779687</v>
+        <v>1.047183095344054</v>
       </c>
       <c r="N20">
-        <v>1.013847680257862</v>
+        <v>1.015197138054525</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046461649427638</v>
+        <v>1.045955145585746</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041381133539109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040629428314422</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023162089234061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9995299410245747</v>
+        <v>0.9995264127760745</v>
       </c>
       <c r="D21">
-        <v>1.025394844630941</v>
+        <v>1.024838108810059</v>
       </c>
       <c r="E21">
-        <v>1.017819727074394</v>
+        <v>1.017841423585583</v>
       </c>
       <c r="F21">
-        <v>1.030394529888714</v>
+        <v>1.030194777173138</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04774889025288</v>
+        <v>1.047645239594823</v>
       </c>
       <c r="J21">
-        <v>1.029047328365573</v>
+        <v>1.029043947829979</v>
       </c>
       <c r="K21">
-        <v>1.039910563299886</v>
+        <v>1.039363715016698</v>
       </c>
       <c r="L21">
-        <v>1.03247118493563</v>
+        <v>1.032492488913347</v>
       </c>
       <c r="M21">
-        <v>1.044822075339977</v>
+        <v>1.04462582414685</v>
       </c>
       <c r="N21">
-        <v>1.012610353373613</v>
+        <v>1.014815630935425</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044046048035594</v>
+        <v>1.043890729117171</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039372038744323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039002141713471</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022640622486399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9959527059460218</v>
+        <v>0.9963197441725388</v>
       </c>
       <c r="D22">
-        <v>1.022971045350826</v>
+        <v>1.022765527317069</v>
       </c>
       <c r="E22">
-        <v>1.015074976978275</v>
+        <v>1.015422419805279</v>
       </c>
       <c r="F22">
-        <v>1.027898867584644</v>
+        <v>1.027988613027423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046945036457442</v>
+        <v>1.047011233528286</v>
       </c>
       <c r="J22">
-        <v>1.026871572327597</v>
+        <v>1.027222321469435</v>
       </c>
       <c r="K22">
-        <v>1.038100775076879</v>
+        <v>1.037899094299038</v>
       </c>
       <c r="L22">
-        <v>1.030353596431427</v>
+        <v>1.030694424110177</v>
       </c>
       <c r="M22">
-        <v>1.042937188036206</v>
+        <v>1.043025279322919</v>
       </c>
       <c r="N22">
-        <v>1.011826317626588</v>
+        <v>1.01456952537718</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042554291877755</v>
+        <v>1.042624010023535</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038079034738289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037951891607774</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02230959022288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9978395684366589</v>
+        <v>0.997992603513</v>
       </c>
       <c r="D23">
-        <v>1.024242526850275</v>
+        <v>1.023836917783435</v>
       </c>
       <c r="E23">
-        <v>1.016519211496756</v>
+        <v>1.016678245974647</v>
       </c>
       <c r="F23">
-        <v>1.029212040323378</v>
+        <v>1.029135309870686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047364146942393</v>
+        <v>1.047332957018751</v>
       </c>
       <c r="J23">
-        <v>1.028013277697142</v>
+        <v>1.028159726123055</v>
       </c>
       <c r="K23">
-        <v>1.039046503233177</v>
+        <v>1.03864827091774</v>
       </c>
       <c r="L23">
-        <v>1.031464969268037</v>
+        <v>1.031621055933171</v>
       </c>
       <c r="M23">
-        <v>1.043926250147461</v>
+        <v>1.043850897150208</v>
       </c>
       <c r="N23">
-        <v>1.012234862712661</v>
+        <v>1.014648377546272</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043337065580052</v>
+        <v>1.043277428966079</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038738115129495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038471060006802</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022474841444233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00513399400612</v>
+        <v>1.004557918591202</v>
       </c>
       <c r="D24">
-        <v>1.029180344062706</v>
+        <v>1.0280809310023</v>
       </c>
       <c r="E24">
-        <v>1.022124318726489</v>
+        <v>1.021644120346931</v>
       </c>
       <c r="F24">
-        <v>1.034310725560668</v>
+        <v>1.033664890179478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048974801817966</v>
+        <v>1.048610850011143</v>
       </c>
       <c r="J24">
-        <v>1.032435837362741</v>
+        <v>1.031881637092387</v>
       </c>
       <c r="K24">
-        <v>1.042713691819242</v>
+        <v>1.041632229029414</v>
       </c>
       <c r="L24">
-        <v>1.035773735593383</v>
+        <v>1.035301511338693</v>
       </c>
       <c r="M24">
-        <v>1.047760956220646</v>
+        <v>1.047125525736684</v>
       </c>
       <c r="N24">
-        <v>1.013821323515675</v>
+        <v>1.015175416700023</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046371960143118</v>
+        <v>1.045869063401011</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041323506135075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040572614424129</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023144168303796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013285841765058</v>
+        <v>1.012151279271059</v>
       </c>
       <c r="D25">
-        <v>1.034719688486943</v>
+        <v>1.033041768209657</v>
       </c>
       <c r="E25">
-        <v>1.028421000624025</v>
+        <v>1.027452477430382</v>
       </c>
       <c r="F25">
-        <v>1.040042972082466</v>
+        <v>1.038946796501626</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050733721619759</v>
+        <v>1.050102216624549</v>
       </c>
       <c r="J25">
-        <v>1.037374210201063</v>
+        <v>1.036276511994342</v>
       </c>
       <c r="K25">
-        <v>1.046801915830031</v>
+        <v>1.045147926997433</v>
       </c>
       <c r="L25">
-        <v>1.040593574885738</v>
+        <v>1.039639068515309</v>
       </c>
       <c r="M25">
-        <v>1.052049921414604</v>
+        <v>1.050969167459155</v>
       </c>
       <c r="N25">
-        <v>1.015590321319779</v>
+        <v>1.01636670669166</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049766353376181</v>
+        <v>1.04891101940465</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044211201945959</v>
+        <v>1.043055194599283</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023947395047767</v>
       </c>
     </row>
   </sheetData>
